--- a/data_table/BattleProcessWave.xlsx
+++ b/data_table/BattleProcessWave.xlsx
@@ -1163,7 +1163,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_table/BattleProcessWave.xlsx
+++ b/data_table/BattleProcessWave.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="20985" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1163,7 +1163,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1327,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
       <c r="I5">
         <v>20000</v>
@@ -1359,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="H6">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
       <c r="I6">
         <v>20000</v>

--- a/data_table/BattleProcessWave.xlsx
+++ b/data_table/BattleProcessWave.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20985" windowHeight="11655"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>#</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>List&lt;int&gt;</t>
   </si>
   <si>
     <t>转表符</t>
@@ -335,12 +338,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1163,7 +1166,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1225,7 +1228,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -1242,34 +1245,34 @@
     </row>
     <row r="3" ht="93" customHeight="1" spans="1:10">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1280,7 +1283,7 @@
         <v>100</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4">
         <v>100</v>
@@ -1289,7 +1292,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1312,7 +1315,7 @@
         <v>101</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5">
         <v>100</v>
@@ -1321,7 +1324,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1344,7 +1347,7 @@
         <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6">
         <v>100</v>
@@ -1353,7 +1356,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6">
         <v>2</v>
